--- a/Lab6_DT/Lab6_663380211-0.xlsx
+++ b/Lab6_DT/Lab6_663380211-0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thana\Code\SQA\LabSQA\Lab6_DT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92720957-B44F-48DA-89A5-617E86F57CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A5566-D140-4BE9-855B-2A987F00FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57594,7 +57616,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -57781,9 +57803,9 @@
       <c r="F10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4" t="e">
-        <f t="shared" ref="G10:G26" ca="1" si="0">_xludf.IFS(C10="Standard",150,C10="Premium",350,C10="Family",450) + IF(D10="T",100,0) + IF(E10="T",100,0) - IF(F10="T",50,0)</f>
-        <v>#NAME?</v>
+      <c r="G10" s="4" cm="1">
+        <f t="array" ref="G10">_xlfn.IFS(C10="Standard",150,C10="Premium",350,C10="Family",450) + IF(D10="T",100,0) + IF(E10="T",100,0) - IF(F10="T",50,0)</f>
+        <v>150</v>
       </c>
       <c r="H10" s="26">
         <v>150</v>
@@ -57811,9 +57833,9 @@
       <c r="F11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G11" s="4" cm="1">
+        <f t="array" ref="G11">_xlfn.IFS(C11="Standard",150,C11="Premium",350,C11="Family",450) + IF(D11="T",100,0) + IF(E11="T",100,0) - IF(F11="T",50,0)</f>
+        <v>250</v>
       </c>
       <c r="H11" s="26">
         <v>250</v>
@@ -57841,9 +57863,9 @@
       <c r="F12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G12" s="4" cm="1">
+        <f t="array" ref="G12">_xlfn.IFS(C12="Standard",150,C12="Premium",350,C12="Family",450) + IF(D12="T",100,0) + IF(E12="T",100,0) - IF(F12="T",50,0)</f>
+        <v>250</v>
       </c>
       <c r="H12" s="26">
         <v>250</v>
@@ -57871,9 +57893,9 @@
       <c r="F13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G13" s="4" cm="1">
+        <f t="array" ref="G13">_xlfn.IFS(C13="Standard",150,C13="Premium",350,C13="Family",450) + IF(D13="T",100,0) + IF(E13="T",100,0) - IF(F13="T",50,0)</f>
+        <v>100</v>
       </c>
       <c r="H13" s="26">
         <v>100</v>
@@ -57901,9 +57923,9 @@
       <c r="F14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G14" s="4" cm="1">
+        <f t="array" ref="G14">_xlfn.IFS(C14="Standard",150,C14="Premium",350,C14="Family",450) + IF(D14="T",100,0) + IF(E14="T",100,0) - IF(F14="T",50,0)</f>
+        <v>350</v>
       </c>
       <c r="H14" s="26">
         <v>350</v>
@@ -57931,9 +57953,9 @@
       <c r="F15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G15" s="4" cm="1">
+        <f t="array" ref="G15">_xlfn.IFS(C15="Standard",150,C15="Premium",350,C15="Family",450) + IF(D15="T",100,0) + IF(E15="T",100,0) - IF(F15="T",50,0)</f>
+        <v>200</v>
       </c>
       <c r="H15" s="26">
         <v>200</v>
@@ -57961,9 +57983,9 @@
       <c r="F16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G16" s="4" cm="1">
+        <f t="array" ref="G16">_xlfn.IFS(C16="Standard",150,C16="Premium",350,C16="Family",450) + IF(D16="T",100,0) + IF(E16="T",100,0) - IF(F16="T",50,0)</f>
+        <v>200</v>
       </c>
       <c r="H16" s="26">
         <v>200</v>
@@ -57991,9 +58013,9 @@
       <c r="F17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G17" s="4" cm="1">
+        <f t="array" ref="G17">_xlfn.IFS(C17="Standard",150,C17="Premium",350,C17="Family",450) + IF(D17="T",100,0) + IF(E17="T",100,0) - IF(F17="T",50,0)</f>
+        <v>500</v>
       </c>
       <c r="H17" s="26">
         <v>500</v>
@@ -58021,9 +58043,9 @@
       <c r="F18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G18" s="4" cm="1">
+        <f t="array" ref="G18">_xlfn.IFS(C18="Standard",150,C18="Premium",350,C18="Family",450) + IF(D18="T",100,0) + IF(E18="T",100,0) - IF(F18="T",50,0)</f>
+        <v>350</v>
       </c>
       <c r="H18" s="26">
         <v>350</v>
@@ -58051,9 +58073,9 @@
       <c r="F19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G19" s="4" cm="1">
+        <f t="array" ref="G19">_xlfn.IFS(C19="Standard",150,C19="Premium",350,C19="Family",450) + IF(D19="T",100,0) + IF(E19="T",100,0) - IF(F19="T",50,0)</f>
+        <v>450</v>
       </c>
       <c r="H19" s="26">
         <v>350</v>
@@ -58081,9 +58103,9 @@
       <c r="F20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G20" s="4" cm="1">
+        <f t="array" ref="G20">_xlfn.IFS(C20="Standard",150,C20="Premium",350,C20="Family",450) + IF(D20="T",100,0) + IF(E20="T",100,0) - IF(F20="T",50,0)</f>
+        <v>450</v>
       </c>
       <c r="H20" s="26">
         <v>350</v>
@@ -58111,9 +58133,9 @@
       <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G21" s="4" cm="1">
+        <f t="array" ref="G21">_xlfn.IFS(C21="Standard",150,C21="Premium",350,C21="Family",450) + IF(D21="T",100,0) + IF(E21="T",100,0) - IF(F21="T",50,0)</f>
+        <v>300</v>
       </c>
       <c r="H21" s="26">
         <v>300</v>
@@ -58141,9 +58163,9 @@
       <c r="F22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G22" s="4" cm="1">
+        <f t="array" ref="G22">_xlfn.IFS(C22="Standard",150,C22="Premium",350,C22="Family",450) + IF(D22="T",100,0) + IF(E22="T",100,0) - IF(F22="T",50,0)</f>
+        <v>550</v>
       </c>
       <c r="H22" s="26">
         <v>350</v>
@@ -58171,9 +58193,9 @@
       <c r="F23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G23" s="4" cm="1">
+        <f t="array" ref="G23">_xlfn.IFS(C23="Standard",150,C23="Premium",350,C23="Family",450) + IF(D23="T",100,0) + IF(E23="T",100,0) - IF(F23="T",50,0)</f>
+        <v>400</v>
       </c>
       <c r="H23" s="26">
         <v>400</v>
@@ -58201,9 +58223,9 @@
       <c r="F24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G24" s="4" cm="1">
+        <f t="array" ref="G24">_xlfn.IFS(C24="Standard",150,C24="Premium",350,C24="Family",450) + IF(D24="T",100,0) + IF(E24="T",100,0) - IF(F24="T",50,0)</f>
+        <v>400</v>
       </c>
       <c r="H24" s="26">
         <v>400</v>
@@ -58231,9 +58253,9 @@
       <c r="F25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G25" s="4" cm="1">
+        <f t="array" ref="G25">_xlfn.IFS(C25="Standard",150,C25="Premium",350,C25="Family",450) + IF(D25="T",100,0) + IF(E25="T",100,0) - IF(F25="T",50,0)</f>
+        <v>500</v>
       </c>
       <c r="H25" s="26">
         <v>500</v>
@@ -58261,9 +58283,9 @@
       <c r="F26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G26" s="4" cm="1">
+        <f t="array" ref="G26">_xlfn.IFS(C26="Standard",150,C26="Premium",350,C26="Family",450) + IF(D26="T",100,0) + IF(E26="T",100,0) - IF(F26="T",50,0)</f>
+        <v>450</v>
       </c>
       <c r="H26" s="26">
         <v>450</v>
@@ -58320,9 +58342,9 @@
       <c r="F28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="4" t="e">
-        <f t="shared" ref="G28:G29" ca="1" si="1">_xludf.IFS(C28="Standard",150,C28="Premium",350,C28="Family",450) + IF(D28="T",100,0) + IF(E28="T",100,0) - IF(F28="T",50,0)</f>
-        <v>#NAME?</v>
+      <c r="G28" s="4" cm="1">
+        <f t="array" ref="G28">_xlfn.IFS(C28="Standard",150,C28="Premium",350,C28="Family",450) + IF(D28="T",100,0) + IF(E28="T",100,0) - IF(F28="T",50,0)</f>
+        <v>550</v>
       </c>
       <c r="H28" s="26">
         <v>450</v>
@@ -58350,9 +58372,9 @@
       <c r="F29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G29" s="4" cm="1">
+        <f t="array" ref="G29">_xlfn.IFS(C29="Standard",150,C29="Premium",350,C29="Family",450) + IF(D29="T",100,0) + IF(E29="T",100,0) - IF(F29="T",50,0)</f>
+        <v>400</v>
       </c>
       <c r="H29" s="26">
         <v>400</v>
@@ -58438,9 +58460,9 @@
       <c r="F32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="4" t="e">
-        <f ca="1">_xludf.IFS(C32="Standard",150,C32="Premium",350,C32="Family",450) + IF(D32="T",100,0) + IF(E32="T",100,0) - IF(F32="T",50,0)</f>
-        <v>#NAME?</v>
+      <c r="G32" s="4" cm="1">
+        <f t="array" ref="G32">_xlfn.IFS(C32="Standard",150,C32="Premium",350,C32="Family",450) + IF(D32="T",100,0) + IF(E32="T",100,0) - IF(F32="T",50,0)</f>
+        <v>500</v>
       </c>
       <c r="H32" s="26">
         <v>500</v>
@@ -61401,8 +61423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -63199,16 +63221,16 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
